--- a/Raw data/2020/Corona (76) copy 59.xlsx
+++ b/Raw data/2020/Corona (76) copy 59.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhou/Desktop/Corona copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhou/Desktop/CovidCasesQC/Raw data/2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AFEA24-5329-174C-8AAB-BCD60A47867C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA275AB3-3DF1-824A-BC9D-05AB7936F8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="460" windowWidth="27520" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>1 184</t>
   </si>
   <si>
-    <t>29 674 (29 714)</t>
-  </si>
-  <si>
     <t>6 254</t>
   </si>
   <si>
@@ -112,10 +109,13 @@
     <t>9 250</t>
   </si>
   <si>
-    <t>61 940 (61 945)</t>
-  </si>
-  <si>
     <t>Nombre de cas confirmés, en date du 25 août 16 h</t>
+  </si>
+  <si>
+    <t>29 674</t>
+  </si>
+  <si>
+    <t>61 940</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="224" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -568,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -648,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -688,7 +688,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
